--- a/xlsx/Ubuntu_intext.xlsx
+++ b/xlsx/Ubuntu_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="560">
   <si>
     <t>Ubuntu</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Linux</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Ubuntu</t>
+    <t>政策_政策_维基百科_Ubuntu</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E7%8F%AD%E5%9B%BE</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%87%BA%E7%89%88%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件出版週期</t>
+    <t>软件出版周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%94%B5%E8%84%91</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%BF%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>平板電腦</t>
+    <t>平板电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ubuntu_Touch</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>智能電視</t>
+    <t>智能电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ubuntu_TV</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/Ubuntu_%E8%BB%9F%E9%AB%94%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>Ubuntu 軟體中心</t>
+    <t>Ubuntu 软体中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E5%8C%85%E7%AE%A1%E7%90%86%E7%B3%BB%E7%BB%9F</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/ARM%E6%9E%B6%E6%A7%8B</t>
   </si>
   <si>
-    <t>ARM架構</t>
+    <t>ARM架构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E6%A0%B8</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%A1%8A%E6%80%A7%E6%A0%B8%E5%BF%83</t>
   </si>
   <si>
-    <t>整塊性核心</t>
+    <t>整块性核心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux%E5%86%85%E6%A0%B8</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E7%94%A8%E8%80%85%E7%A9%BA%E9%96%93</t>
   </si>
   <si>
-    <t>使用者空間</t>
+    <t>使用者空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNU%E6%A0%B8%E5%BF%83%E5%B7%A5%E5%85%B7%E7%BB%84</t>
@@ -239,19 +239,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E6%8E%88%E6%AC%8A%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>自由軟體授權條款</t>
+    <t>自由软体授权条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9F%B3%E6%A8%99</t>
   </si>
   <si>
-    <t>國際音標</t>
+    <t>国际音标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux%E7%99%BC%E8%A1%8C%E7%89%88</t>
   </si>
   <si>
-    <t>Linux發行版</t>
+    <t>Linux发行版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%96%E9%AD%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>祖魯語</t>
+    <t>祖鲁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%96%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>科薩語</t>
+    <t>科萨语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mark_Shuttleworth</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>自由軟體</t>
+    <t>自由软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E8%AE%BE%E5%A4%87</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E8%88%8D%E7%89%B9%E7%88%BE%E6%B2%83%E6%96%AF</t>
   </si>
   <si>
-    <t>馬克·舍特爾沃斯</t>
+    <t>马克·舍特尔沃斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%BA%E6%9C%8D%E5%99%A8</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>開放原始碼</t>
+    <t>开放原始码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Deb</t>
@@ -359,9 +359,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B4%9A%E5%8C%85%E8%A3%9D%E5%B7%A5%E5%85%B7</t>
   </si>
   <si>
-    <t>高級包裝工具</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Canonical</t>
   </si>
   <si>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%8C%85</t>
   </si>
   <si>
-    <t>軟件包</t>
+    <t>软件包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E7%94%A8%E6%80%A7</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8C%96%E8%88%87%E6%9C%AC%E5%9C%B0%E5%8C%96</t>
   </si>
   <si>
-    <t>國際化與本地化</t>
+    <t>国际化与本地化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Unicode</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E7%A2%9F%E6%98%A0%E5%83%8F%E6%AA%94</t>
   </si>
   <si>
-    <t>光碟映像檔</t>
+    <t>光碟映像档</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Live_CD</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD</t>
   </si>
   <si>
-    <t>昇陽</t>
+    <t>昇阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SPARC</t>
@@ -455,19 +452,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%AF%E7%A4%BA%E5%8D%A1</t>
   </si>
   <si>
-    <t>顯示卡</t>
+    <t>显示卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%85%E5%8B%95%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>驅動程式</t>
+    <t>驱动程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>原始碼</t>
+    <t>原始码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BD%AF%E4%BB%B6</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%96%A3%E8%B1%AC</t>
   </si>
   <si>
-    <t>疣豬</t>
+    <t>疣猪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%BA%E7%8C%AC</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%B2%93</t>
   </si>
   <si>
-    <t>山貓</t>
+    <t>山猫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%90%E7%8D%B4</t>
@@ -605,19 +602,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A0%91%E8%9E%88</t>
   </si>
   <si>
-    <t>蠑螈</t>
+    <t>蝾螈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%88%BE%E7%BE%8A</t>
   </si>
   <si>
-    <t>塔爾羊</t>
+    <t>塔尔羊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A7%92%E7%8D%B8</t>
   </si>
   <si>
-    <t>獨角獸</t>
+    <t>独角兽</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vervet_monkey</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%82%E7%89%9B</t>
   </si>
   <si>
-    <t>氂牛</t>
+    <t>牦牛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%9E%97%E8%B7%B3%E9%BC%A0</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%A9%E5%85%B7%E7%B8%BD%E5%8B%95%E5%93%A1</t>
   </si>
   <si>
-    <t>玩具總動員</t>
+    <t>玩具总动员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayland</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ian_Murdock</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%83%B5%E4%BB%B6</t>
   </si>
   <si>
-    <t>電子郵件</t>
+    <t>电子邮件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LAMP</t>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%BA%AB</t>
   </si>
   <si>
-    <t>資料庫</t>
+    <t>资料库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ubuntu_Studio</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>自由軟體基金會</t>
+    <t>自由软体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ubuntu_Lite</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E7%AA%97%E7%AE%A1%E7%90%86%E5%93%A1</t>
   </si>
   <si>
-    <t>視窗管理員</t>
+    <t>视窗管理员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Fluxbuntu</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%A2%A9</t>
   </si>
   <si>
-    <t>華碩</t>
+    <t>华硕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Eee_PC</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E6%B2%99%E7%89%B9%E7%88%BE%E6%B2%83%E6%80%9D</t>
   </si>
   <si>
-    <t>馬克·沙特爾沃思</t>
+    <t>马克·沙特尔沃思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Elementary_(%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F)</t>
@@ -1097,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E8%A6%96%E7%AA%97%E8%88%87Linux%E7%9A%84%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>微軟視窗與Linux的比較</t>
+    <t>微软视窗与Linux的比较</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jono_Bacon</t>
@@ -1127,9 +1124,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E6%B2%99%E7%89%B9%E5%B0%94%E6%B2%83%E6%80%9D</t>
   </si>
   <si>
-    <t>马克·沙特尔沃思</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Jeff_Waugh</t>
   </si>
   <si>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/Nautilus%E6%AA%94%E6%A1%88%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>Nautilus檔案瀏覽器</t>
+    <t>Nautilus档案浏览器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LightDM</t>
@@ -1361,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/Ubuntu_(%E5%AD%97%E9%AB%94)</t>
   </si>
   <si>
-    <t>Ubuntu (字體)</t>
+    <t>Ubuntu (字体)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ubuntu-Title</t>
@@ -1403,9 +1397,6 @@
     <t>https://zh.wikipedia.org/wiki/Linux%E5%8F%91%E8%A1%8C%E7%89%88</t>
   </si>
   <si>
-    <t>Linux发行版</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Knoppix</t>
   </si>
   <si>
@@ -1493,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%97%97Linux</t>
   </si>
   <si>
-    <t>紅旗Linux</t>
+    <t>红旗Linux</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Fedora</t>
@@ -1691,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3843,7 +3834,7 @@
         <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3869,10 +3860,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" t="s">
         <v>115</v>
-      </c>
-      <c r="F63" t="s">
-        <v>116</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -3898,10 +3889,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" t="s">
         <v>117</v>
-      </c>
-      <c r="F64" t="s">
-        <v>118</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3927,10 +3918,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" t="s">
         <v>119</v>
-      </c>
-      <c r="F65" t="s">
-        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3956,10 +3947,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
         <v>121</v>
-      </c>
-      <c r="F66" t="s">
-        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3985,10 +3976,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" t="s">
         <v>123</v>
-      </c>
-      <c r="F67" t="s">
-        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4014,10 +4005,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" t="s">
         <v>125</v>
-      </c>
-      <c r="F68" t="s">
-        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4043,10 +4034,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" t="s">
         <v>127</v>
-      </c>
-      <c r="F69" t="s">
-        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4072,10 +4063,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" t="s">
         <v>129</v>
-      </c>
-      <c r="F70" t="s">
-        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4101,10 +4092,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
         <v>131</v>
-      </c>
-      <c r="F71" t="s">
-        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4130,10 +4121,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
         <v>133</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4188,10 +4179,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" t="s">
         <v>135</v>
-      </c>
-      <c r="F74" t="s">
-        <v>136</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4217,10 +4208,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
         <v>137</v>
-      </c>
-      <c r="F75" t="s">
-        <v>138</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4246,10 +4237,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" t="s">
         <v>139</v>
-      </c>
-      <c r="F76" t="s">
-        <v>140</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4275,10 +4266,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" t="s">
         <v>141</v>
-      </c>
-      <c r="F77" t="s">
-        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4304,10 +4295,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" t="s">
         <v>131</v>
-      </c>
-      <c r="F78" t="s">
-        <v>132</v>
       </c>
       <c r="G78" t="n">
         <v>6</v>
@@ -4333,10 +4324,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" t="s">
         <v>143</v>
-      </c>
-      <c r="F79" t="s">
-        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4362,10 +4353,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" t="s">
         <v>145</v>
-      </c>
-      <c r="F80" t="s">
-        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4391,10 +4382,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" t="s">
         <v>147</v>
-      </c>
-      <c r="F81" t="s">
-        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4420,10 +4411,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" t="s">
         <v>149</v>
-      </c>
-      <c r="F82" t="s">
-        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4449,10 +4440,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" t="s">
         <v>151</v>
-      </c>
-      <c r="F83" t="s">
-        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4478,10 +4469,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" t="s">
         <v>153</v>
-      </c>
-      <c r="F84" t="s">
-        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4507,10 +4498,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85" t="s">
         <v>155</v>
-      </c>
-      <c r="F85" t="s">
-        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4536,10 +4527,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" t="s">
         <v>157</v>
-      </c>
-      <c r="F86" t="s">
-        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4565,10 +4556,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" t="s">
         <v>159</v>
-      </c>
-      <c r="F87" t="s">
-        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -4594,10 +4585,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>160</v>
+      </c>
+      <c r="F88" t="s">
         <v>161</v>
-      </c>
-      <c r="F88" t="s">
-        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4623,10 +4614,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" t="s">
         <v>163</v>
-      </c>
-      <c r="F89" t="s">
-        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4652,10 +4643,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>164</v>
+      </c>
+      <c r="F90" t="s">
         <v>165</v>
-      </c>
-      <c r="F90" t="s">
-        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4681,10 +4672,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>166</v>
+      </c>
+      <c r="F91" t="s">
         <v>167</v>
-      </c>
-      <c r="F91" t="s">
-        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4710,10 +4701,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>168</v>
+      </c>
+      <c r="F92" t="s">
         <v>169</v>
-      </c>
-      <c r="F92" t="s">
-        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4739,10 +4730,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" t="s">
         <v>171</v>
-      </c>
-      <c r="F93" t="s">
-        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4768,10 +4759,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>172</v>
+      </c>
+      <c r="F94" t="s">
         <v>173</v>
-      </c>
-      <c r="F94" t="s">
-        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4797,10 +4788,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F95" t="s">
         <v>175</v>
-      </c>
-      <c r="F95" t="s">
-        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4826,10 +4817,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>176</v>
+      </c>
+      <c r="F96" t="s">
         <v>177</v>
-      </c>
-      <c r="F96" t="s">
-        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4855,10 +4846,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>178</v>
+      </c>
+      <c r="F97" t="s">
         <v>179</v>
-      </c>
-      <c r="F97" t="s">
-        <v>180</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4884,10 +4875,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>180</v>
+      </c>
+      <c r="F98" t="s">
         <v>181</v>
-      </c>
-      <c r="F98" t="s">
-        <v>182</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4913,10 +4904,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>182</v>
+      </c>
+      <c r="F99" t="s">
         <v>183</v>
-      </c>
-      <c r="F99" t="s">
-        <v>184</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4942,10 +4933,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>184</v>
+      </c>
+      <c r="F100" t="s">
         <v>185</v>
-      </c>
-      <c r="F100" t="s">
-        <v>186</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4971,10 +4962,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>186</v>
+      </c>
+      <c r="F101" t="s">
         <v>187</v>
-      </c>
-      <c r="F101" t="s">
-        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5000,10 +4991,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>188</v>
+      </c>
+      <c r="F102" t="s">
         <v>189</v>
-      </c>
-      <c r="F102" t="s">
-        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5029,10 +5020,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>190</v>
+      </c>
+      <c r="F103" t="s">
         <v>191</v>
-      </c>
-      <c r="F103" t="s">
-        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5058,10 +5049,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>192</v>
+      </c>
+      <c r="F104" t="s">
         <v>193</v>
-      </c>
-      <c r="F104" t="s">
-        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5087,10 +5078,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>194</v>
+      </c>
+      <c r="F105" t="s">
         <v>195</v>
-      </c>
-      <c r="F105" t="s">
-        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5116,10 +5107,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" t="s">
         <v>197</v>
-      </c>
-      <c r="F106" t="s">
-        <v>198</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5145,10 +5136,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>198</v>
+      </c>
+      <c r="F107" t="s">
         <v>199</v>
-      </c>
-      <c r="F107" t="s">
-        <v>200</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5174,10 +5165,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>200</v>
+      </c>
+      <c r="F108" t="s">
         <v>201</v>
-      </c>
-      <c r="F108" t="s">
-        <v>202</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5203,10 +5194,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" t="s">
         <v>203</v>
-      </c>
-      <c r="F109" t="s">
-        <v>204</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5232,10 +5223,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>204</v>
+      </c>
+      <c r="F110" t="s">
         <v>205</v>
-      </c>
-      <c r="F110" t="s">
-        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5261,10 +5252,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>206</v>
+      </c>
+      <c r="F111" t="s">
         <v>207</v>
-      </c>
-      <c r="F111" t="s">
-        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5290,10 +5281,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>208</v>
+      </c>
+      <c r="F112" t="s">
         <v>209</v>
-      </c>
-      <c r="F112" t="s">
-        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5319,10 +5310,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113" t="s">
         <v>211</v>
-      </c>
-      <c r="F113" t="s">
-        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5348,10 +5339,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>212</v>
+      </c>
+      <c r="F114" t="s">
         <v>213</v>
-      </c>
-      <c r="F114" t="s">
-        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5377,10 +5368,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>214</v>
+      </c>
+      <c r="F115" t="s">
         <v>215</v>
-      </c>
-      <c r="F115" t="s">
-        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5406,10 +5397,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>216</v>
+      </c>
+      <c r="F116" t="s">
         <v>217</v>
-      </c>
-      <c r="F116" t="s">
-        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5435,10 +5426,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>218</v>
+      </c>
+      <c r="F117" t="s">
         <v>219</v>
-      </c>
-      <c r="F117" t="s">
-        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5464,10 +5455,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>220</v>
+      </c>
+      <c r="F118" t="s">
         <v>221</v>
-      </c>
-      <c r="F118" t="s">
-        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5493,10 +5484,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>222</v>
+      </c>
+      <c r="F119" t="s">
         <v>223</v>
-      </c>
-      <c r="F119" t="s">
-        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5522,10 +5513,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>224</v>
+      </c>
+      <c r="F120" t="s">
         <v>225</v>
-      </c>
-      <c r="F120" t="s">
-        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5551,10 +5542,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>226</v>
+      </c>
+      <c r="F121" t="s">
         <v>227</v>
-      </c>
-      <c r="F121" t="s">
-        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5580,10 +5571,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>218</v>
+      </c>
+      <c r="F122" t="s">
         <v>219</v>
-      </c>
-      <c r="F122" t="s">
-        <v>220</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5609,10 +5600,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>228</v>
+      </c>
+      <c r="F123" t="s">
         <v>229</v>
-      </c>
-      <c r="F123" t="s">
-        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5638,10 +5629,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>230</v>
+      </c>
+      <c r="F124" t="s">
         <v>231</v>
-      </c>
-      <c r="F124" t="s">
-        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5667,10 +5658,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>232</v>
+      </c>
+      <c r="F125" t="s">
         <v>233</v>
-      </c>
-      <c r="F125" t="s">
-        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5696,10 +5687,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>216</v>
+      </c>
+      <c r="F126" t="s">
         <v>217</v>
-      </c>
-      <c r="F126" t="s">
-        <v>218</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -5725,10 +5716,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>234</v>
+      </c>
+      <c r="F127" t="s">
         <v>235</v>
-      </c>
-      <c r="F127" t="s">
-        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5754,10 +5745,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>236</v>
+      </c>
+      <c r="F128" t="s">
         <v>237</v>
-      </c>
-      <c r="F128" t="s">
-        <v>238</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5783,10 +5774,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>238</v>
+      </c>
+      <c r="F129" t="s">
         <v>239</v>
-      </c>
-      <c r="F129" t="s">
-        <v>240</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5812,10 +5803,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>240</v>
+      </c>
+      <c r="F130" t="s">
         <v>241</v>
-      </c>
-      <c r="F130" t="s">
-        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5841,10 +5832,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>242</v>
+      </c>
+      <c r="F131" t="s">
         <v>243</v>
-      </c>
-      <c r="F131" t="s">
-        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5870,10 +5861,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>244</v>
+      </c>
+      <c r="F132" t="s">
         <v>245</v>
-      </c>
-      <c r="F132" t="s">
-        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5899,10 +5890,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>246</v>
+      </c>
+      <c r="F133" t="s">
         <v>247</v>
-      </c>
-      <c r="F133" t="s">
-        <v>248</v>
       </c>
       <c r="G133" t="n">
         <v>14</v>
@@ -5928,10 +5919,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>248</v>
+      </c>
+      <c r="F134" t="s">
         <v>249</v>
-      </c>
-      <c r="F134" t="s">
-        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5957,10 +5948,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>250</v>
+      </c>
+      <c r="F135" t="s">
         <v>251</v>
-      </c>
-      <c r="F135" t="s">
-        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5986,10 +5977,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>252</v>
+      </c>
+      <c r="F136" t="s">
         <v>253</v>
-      </c>
-      <c r="F136" t="s">
-        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6015,10 +6006,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>254</v>
+      </c>
+      <c r="F137" t="s">
         <v>255</v>
-      </c>
-      <c r="F137" t="s">
-        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6044,10 +6035,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>256</v>
+      </c>
+      <c r="F138" t="s">
         <v>257</v>
-      </c>
-      <c r="F138" t="s">
-        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -6073,10 +6064,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>258</v>
+      </c>
+      <c r="F139" t="s">
         <v>259</v>
-      </c>
-      <c r="F139" t="s">
-        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -6102,10 +6093,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>260</v>
+      </c>
+      <c r="F140" t="s">
         <v>261</v>
-      </c>
-      <c r="F140" t="s">
-        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -6131,10 +6122,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>262</v>
+      </c>
+      <c r="F141" t="s">
         <v>263</v>
-      </c>
-      <c r="F141" t="s">
-        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>5</v>
@@ -6160,10 +6151,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>264</v>
+      </c>
+      <c r="F142" t="s">
         <v>265</v>
-      </c>
-      <c r="F142" t="s">
-        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6189,10 +6180,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>266</v>
+      </c>
+      <c r="F143" t="s">
         <v>267</v>
-      </c>
-      <c r="F143" t="s">
-        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -6218,10 +6209,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>268</v>
+      </c>
+      <c r="F144" t="s">
         <v>269</v>
-      </c>
-      <c r="F144" t="s">
-        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6247,10 +6238,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>270</v>
+      </c>
+      <c r="F145" t="s">
         <v>271</v>
-      </c>
-      <c r="F145" t="s">
-        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6276,10 +6267,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>272</v>
+      </c>
+      <c r="F146" t="s">
         <v>273</v>
-      </c>
-      <c r="F146" t="s">
-        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6305,10 +6296,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>274</v>
+      </c>
+      <c r="F147" t="s">
         <v>275</v>
-      </c>
-      <c r="F147" t="s">
-        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6334,10 +6325,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>276</v>
+      </c>
+      <c r="F148" t="s">
         <v>277</v>
-      </c>
-      <c r="F148" t="s">
-        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6363,10 +6354,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>278</v>
+      </c>
+      <c r="F149" t="s">
         <v>279</v>
-      </c>
-      <c r="F149" t="s">
-        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6392,10 +6383,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>280</v>
+      </c>
+      <c r="F150" t="s">
         <v>281</v>
-      </c>
-      <c r="F150" t="s">
-        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>5</v>
@@ -6421,10 +6412,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>282</v>
+      </c>
+      <c r="F151" t="s">
         <v>283</v>
-      </c>
-      <c r="F151" t="s">
-        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6450,10 +6441,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>284</v>
+      </c>
+      <c r="F152" t="s">
         <v>285</v>
-      </c>
-      <c r="F152" t="s">
-        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -6479,10 +6470,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>286</v>
+      </c>
+      <c r="F153" t="s">
         <v>287</v>
-      </c>
-      <c r="F153" t="s">
-        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>4</v>
@@ -6508,10 +6499,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>288</v>
+      </c>
+      <c r="F154" t="s">
         <v>289</v>
-      </c>
-      <c r="F154" t="s">
-        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>5</v>
@@ -6537,10 +6528,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>290</v>
+      </c>
+      <c r="F155" t="s">
         <v>291</v>
-      </c>
-      <c r="F155" t="s">
-        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6566,10 +6557,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>292</v>
+      </c>
+      <c r="F156" t="s">
         <v>293</v>
-      </c>
-      <c r="F156" t="s">
-        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>4</v>
@@ -6595,10 +6586,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>294</v>
+      </c>
+      <c r="F157" t="s">
         <v>295</v>
-      </c>
-      <c r="F157" t="s">
-        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6624,10 +6615,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>296</v>
+      </c>
+      <c r="F158" t="s">
         <v>297</v>
-      </c>
-      <c r="F158" t="s">
-        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -6653,10 +6644,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>298</v>
+      </c>
+      <c r="F159" t="s">
         <v>299</v>
-      </c>
-      <c r="F159" t="s">
-        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6682,10 +6673,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>300</v>
+      </c>
+      <c r="F160" t="s">
         <v>301</v>
-      </c>
-      <c r="F160" t="s">
-        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6711,10 +6702,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>302</v>
+      </c>
+      <c r="F161" t="s">
         <v>303</v>
-      </c>
-      <c r="F161" t="s">
-        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6740,10 +6731,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>304</v>
+      </c>
+      <c r="F162" t="s">
         <v>305</v>
-      </c>
-      <c r="F162" t="s">
-        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6769,10 +6760,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>306</v>
+      </c>
+      <c r="F163" t="s">
         <v>307</v>
-      </c>
-      <c r="F163" t="s">
-        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6798,10 +6789,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>308</v>
+      </c>
+      <c r="F164" t="s">
         <v>309</v>
-      </c>
-      <c r="F164" t="s">
-        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6827,10 +6818,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>310</v>
+      </c>
+      <c r="F165" t="s">
         <v>311</v>
-      </c>
-      <c r="F165" t="s">
-        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6856,10 +6847,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>312</v>
+      </c>
+      <c r="F166" t="s">
         <v>313</v>
-      </c>
-      <c r="F166" t="s">
-        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6885,10 +6876,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>314</v>
+      </c>
+      <c r="F167" t="s">
         <v>315</v>
-      </c>
-      <c r="F167" t="s">
-        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6914,10 +6905,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>316</v>
+      </c>
+      <c r="F168" t="s">
         <v>317</v>
-      </c>
-      <c r="F168" t="s">
-        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6943,10 +6934,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>318</v>
+      </c>
+      <c r="F169" t="s">
         <v>319</v>
-      </c>
-      <c r="F169" t="s">
-        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6972,10 +6963,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>320</v>
+      </c>
+      <c r="F170" t="s">
         <v>321</v>
-      </c>
-      <c r="F170" t="s">
-        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7001,10 +6992,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>322</v>
+      </c>
+      <c r="F171" t="s">
         <v>323</v>
-      </c>
-      <c r="F171" t="s">
-        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7030,10 +7021,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>310</v>
+      </c>
+      <c r="F172" t="s">
         <v>311</v>
-      </c>
-      <c r="F172" t="s">
-        <v>312</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7059,10 +7050,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>324</v>
+      </c>
+      <c r="F173" t="s">
         <v>325</v>
-      </c>
-      <c r="F173" t="s">
-        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -7088,10 +7079,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>326</v>
+      </c>
+      <c r="F174" t="s">
         <v>327</v>
-      </c>
-      <c r="F174" t="s">
-        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7117,10 +7108,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>328</v>
+      </c>
+      <c r="F175" t="s">
         <v>329</v>
-      </c>
-      <c r="F175" t="s">
-        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7146,10 +7137,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>330</v>
+      </c>
+      <c r="F176" t="s">
         <v>331</v>
-      </c>
-      <c r="F176" t="s">
-        <v>332</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7175,10 +7166,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>332</v>
+      </c>
+      <c r="F177" t="s">
         <v>333</v>
-      </c>
-      <c r="F177" t="s">
-        <v>334</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7204,10 +7195,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>334</v>
+      </c>
+      <c r="F178" t="s">
         <v>335</v>
-      </c>
-      <c r="F178" t="s">
-        <v>336</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7233,10 +7224,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>336</v>
+      </c>
+      <c r="F179" t="s">
         <v>337</v>
-      </c>
-      <c r="F179" t="s">
-        <v>338</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7262,10 +7253,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>338</v>
+      </c>
+      <c r="F180" t="s">
         <v>339</v>
-      </c>
-      <c r="F180" t="s">
-        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7291,10 +7282,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>340</v>
+      </c>
+      <c r="F181" t="s">
         <v>341</v>
-      </c>
-      <c r="F181" t="s">
-        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>19</v>
@@ -7320,10 +7311,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>342</v>
+      </c>
+      <c r="F182" t="s">
         <v>343</v>
-      </c>
-      <c r="F182" t="s">
-        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -7349,10 +7340,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>344</v>
+      </c>
+      <c r="F183" t="s">
         <v>345</v>
-      </c>
-      <c r="F183" t="s">
-        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7378,10 +7369,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>346</v>
+      </c>
+      <c r="F184" t="s">
         <v>347</v>
-      </c>
-      <c r="F184" t="s">
-        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -7407,10 +7398,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>348</v>
+      </c>
+      <c r="F185" t="s">
         <v>349</v>
-      </c>
-      <c r="F185" t="s">
-        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -7436,10 +7427,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>350</v>
+      </c>
+      <c r="F186" t="s">
         <v>351</v>
-      </c>
-      <c r="F186" t="s">
-        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>5</v>
@@ -7465,10 +7456,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>352</v>
+      </c>
+      <c r="F187" t="s">
         <v>353</v>
-      </c>
-      <c r="F187" t="s">
-        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7494,10 +7485,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>354</v>
+      </c>
+      <c r="F188" t="s">
         <v>355</v>
-      </c>
-      <c r="F188" t="s">
-        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7552,10 +7543,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>356</v>
+      </c>
+      <c r="F190" t="s">
         <v>357</v>
-      </c>
-      <c r="F190" t="s">
-        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7581,10 +7572,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>358</v>
+      </c>
+      <c r="F191" t="s">
         <v>359</v>
-      </c>
-      <c r="F191" t="s">
-        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7668,10 +7659,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>360</v>
+      </c>
+      <c r="F194" t="s">
         <v>361</v>
-      </c>
-      <c r="F194" t="s">
-        <v>362</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7697,10 +7688,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>362</v>
+      </c>
+      <c r="F195" t="s">
         <v>363</v>
-      </c>
-      <c r="F195" t="s">
-        <v>364</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7726,10 +7717,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>364</v>
+      </c>
+      <c r="F196" t="s">
         <v>365</v>
-      </c>
-      <c r="F196" t="s">
-        <v>366</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7755,10 +7746,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>366</v>
+      </c>
+      <c r="F197" t="s">
         <v>367</v>
-      </c>
-      <c r="F197" t="s">
-        <v>368</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7784,10 +7775,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7813,10 +7804,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7842,10 +7833,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7871,10 +7862,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G201" t="n">
         <v>10</v>
@@ -7900,10 +7891,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7929,10 +7920,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F203" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7958,10 +7949,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F204" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7987,10 +7978,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F205" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G205" t="n">
         <v>5</v>
@@ -8016,10 +8007,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F206" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8045,10 +8036,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F207" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8074,10 +8065,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F208" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8103,10 +8094,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F209" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8132,10 +8123,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F210" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8161,10 +8152,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F211" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8190,10 +8181,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F212" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8219,10 +8210,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F213" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8248,10 +8239,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F214" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8277,10 +8268,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F215" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8306,10 +8297,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8335,10 +8326,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8364,10 +8355,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8393,10 +8384,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8422,10 +8413,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8451,10 +8442,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8480,10 +8471,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8509,10 +8500,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8538,10 +8529,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8567,10 +8558,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F225" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8596,10 +8587,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F226" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8625,10 +8616,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F227" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8654,10 +8645,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F228" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8683,10 +8674,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F229" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8770,10 +8761,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F232" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8799,10 +8790,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F233" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8828,10 +8819,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F234" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -8857,10 +8848,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F235" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8886,10 +8877,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F236" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8915,10 +8906,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F237" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8944,10 +8935,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F238" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8973,10 +8964,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F239" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9002,10 +8993,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F240" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9031,10 +9022,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F241" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9060,10 +9051,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F242" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9089,10 +9080,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F243" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9118,10 +9109,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F244" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9147,10 +9138,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F245" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9176,10 +9167,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F246" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9205,10 +9196,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F247" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9234,10 +9225,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F248" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9263,10 +9254,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F249" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9292,10 +9283,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>354</v>
+      </c>
+      <c r="F250" t="s">
         <v>355</v>
-      </c>
-      <c r="F250" t="s">
-        <v>356</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9321,10 +9312,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F251" t="s">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="G251" t="n">
         <v>5</v>
@@ -9350,10 +9341,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F252" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9379,10 +9370,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F253" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9408,10 +9399,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F254" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9437,10 +9428,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F255" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9466,10 +9457,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9495,10 +9486,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F257" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9524,10 +9515,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F258" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9553,10 +9544,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F259" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9582,10 +9573,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F260" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G260" t="n">
         <v>5</v>
@@ -9611,10 +9602,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F261" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9640,10 +9631,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F262" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -9669,10 +9660,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F263" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9698,10 +9689,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F264" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9727,10 +9718,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F265" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9756,10 +9747,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F266" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9785,10 +9776,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -9814,10 +9805,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F268" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9843,10 +9834,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F269" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -9872,10 +9863,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F270" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -9901,10 +9892,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F271" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9930,10 +9921,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F272" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9959,10 +9950,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F273" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9988,10 +9979,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F274" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10017,10 +10008,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F275" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10046,10 +10037,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F276" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10075,10 +10066,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F277" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10104,10 +10095,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F278" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10133,10 +10124,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F279" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10162,10 +10153,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F280" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10191,10 +10182,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F281" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10220,10 +10211,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F282" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -10249,10 +10240,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F283" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10278,10 +10269,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F284" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10307,10 +10298,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F285" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10336,10 +10327,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F286" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10365,10 +10356,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F287" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10394,10 +10385,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F288" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10423,10 +10414,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F289" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10452,10 +10443,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F290" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10481,10 +10472,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F291" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10510,10 +10501,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F292" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10539,10 +10530,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F293" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10568,10 +10559,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F294" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10597,10 +10588,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F295" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10626,10 +10617,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F296" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10655,10 +10646,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F297" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10684,10 +10675,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F298" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10713,10 +10704,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F299" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G299" t="n">
         <v>4</v>
@@ -10742,10 +10733,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F300" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -10771,10 +10762,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F301" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10800,10 +10791,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F302" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
